--- a/src/python/exel_validate/flaskr/uploads/Copia_di_Mapping_Varese_-_20240216.xlsx
+++ b/src/python/exel_validate/flaskr/uploads/Copia_di_Mapping_Varese_-_20240216.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SQL Statement" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Validazione" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$BR$136</definedName>
@@ -36830,4 +36831,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Report Validazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>N1: 690115</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Descrizione N1: STUDIO RADIOLOGICO DIAGNOSTICA PER IMMAGINI SRL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>N2: 873</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Descrizione N2: STUDIO RADIOLOGICO DIAGNOSTICA PER IMMAGINI SRL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Numero di coppie prestazione/agenda: 135</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Numero di agende nell'offerta sanitaria: 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Numero di coppie prestazione/agenda abilitate all'esposizione: 135 su 135</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Numero di coppie prestazione/agenda abilitate all'esposizione e prenotabili: 135 su 135</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Numero di coppie prestazione/agenda in combinata: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Note amministrative configurate: </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> per 135 coppie prestazione/agenda è presente la nota: L'ingresso in struttura per l'effettuazione della prestazione e' consentito solo 10 minuti prima dell'orario 
+stabilito.Presentarsi muniti di: impegnativa medica,tessera sanitaria,documentazione clinica precedente,eventuale elenco dei farmaci assunti ,eventuale attestato di esenzione.La revoca o lo sposamento della prenotazione devono essere richiesti almeno 3 giorni lavorativi precedenti l'appuntamento.E' possibile revocare : telefonando in Struttura al numero : 0332 288343 dal Lunedi' al Venerd i' dalle ore 8.00 alle ore 18.00, il Sabato dalle ore 8.00 alle ore 12.00chiamando il numero 800 638 638 da rete fissa o dal numero 02.99.95.99 da rete mobile dal Lunedi' al Sabato dalle ore 8.00 alle ore 20.00.accedendo al sito : www.prenotasalute.r egione.lombardia.it
+I Pazienti minorenni devo essere accompagnati da almeno un genitore o da una persona delegata 
+maggiorenne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Note revoca configurate: </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>La revoca o lo sposamento della prenotazione devono essere richiesti almeno 3 giorni lavorativi precedenti l'appuntamento.
+E' possibile revocare :  
+telefonando in Struttura al numero : 0332 288343 dal Lunedi' al Venerdi' dalle ore 8.00 alle ore 18.00, il Sabato dalle ore 8.00 alle ore 12.00
+chiamando il numero 800 638 638 da rete fissa o dal numero 02.99.95.99 da rete mobile dal Lunedi' al Sabato dalle ore 8.00 alle ore 20.00.
+accedendo al sito : www.prenotasalute.regione.lombardia.it</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Discipline dell'offerta sanitaria: 69</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sono presenti 0 AGENDE con QD configurati e 9 AGENDE sprovviste di QD</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sesso nell'offerta sanitaria: G</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Giorni di preparazione definiti nell'offerta sanitaria: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Giorni di refertazione definiti nell'offerta sanitaria: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Range di Età minime e massime definite nell'offerta sanitaria:  da 0 a 2388,  da 120 a 2388,  da 480 a 2388,  da 0 a 4,  da 72 a 2388,  da 84 a 2388</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>